--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\TestData-main\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56FF98B-68A4-4D03-80CD-198488AB3300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306989D-3C39-4045-A039-4237A7F44EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="475">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1494,7 +1494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,13 +1557,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1613,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1638,7 +1631,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4083,8 +4075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4708,7 +4700,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>380</v>
@@ -4720,9 +4712,9 @@
         <v>382</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="R6" s="12"/>
@@ -4825,7 +4817,7 @@
         <v>382</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>46</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -4861,14 +4853,27 @@
       <c r="AT7" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="AU7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
+      <c r="AW7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
+      <c r="AY7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
+      <c r="BA7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -5899,7 +5904,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5907,8 +5911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6922,7 +6926,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9757,8 +9761,8 @@
   <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11435,7 +11439,7 @@
         <v>186</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>186</v>
@@ -12008,6 +12012,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12224,16 +12238,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
@@ -12243,6 +12247,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12259,14 +12273,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\TestData-main\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306989D-3C39-4045-A039-4237A7F44EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8412AE82-ECF2-4132-8143-CD285220AC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="474">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1200,9 +1200,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>person2</t>
   </si>
   <si>
     <t>Reporting Party</t>
@@ -2090,7 +2087,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A20"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2768,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4075,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4280,7 +4277,7 @@
         <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -4289,13 +4286,13 @@
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
@@ -4383,7 +4380,7 @@
         <v>187</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -4392,13 +4389,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -4488,7 +4485,7 @@
         <v>187</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -4497,13 +4494,13 @@
         <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -4591,7 +4588,7 @@
         <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -4600,13 +4597,13 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>46</v>
@@ -4694,7 +4691,7 @@
         <v>187</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
@@ -4703,13 +4700,13 @@
         <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>46</v>
@@ -4799,25 +4796,25 @@
         <v>187</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -5911,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5972,13 +5969,13 @@
         <v>334</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>336</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>337</v>
@@ -6020,7 +6017,7 @@
         <v>258</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>260</v>
@@ -6029,7 +6026,7 @@
         <v>355</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>358</v>
@@ -6077,11 +6074,11 @@
       <c r="G2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>22</v>
@@ -6090,10 +6087,10 @@
         <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6142,11 +6139,11 @@
       <c r="G3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -6155,73 +6152,73 @@
         <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>193</v>
@@ -6250,10 +6247,10 @@
         <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -6262,76 +6259,76 @@
         <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6357,10 +6354,10 @@
         <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -6369,10 +6366,10 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -6405,7 +6402,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6442,7 +6439,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -7200,25 +7197,25 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>393</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>394</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>395</v>
-      </c>
-      <c r="H1" t="s">
-        <v>396</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>182</v>
@@ -7241,7 +7238,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
@@ -7279,7 +7276,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
@@ -7315,7 +7312,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -7336,10 +7333,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" t="s">
         <v>398</v>
-      </c>
-      <c r="G5" t="s">
-        <v>399</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -7387,49 +7384,49 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7480,7 +7477,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
@@ -7530,7 +7527,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
@@ -7562,7 +7559,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
@@ -7631,58 +7628,58 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" t="s">
         <v>417</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>418</v>
-      </c>
-      <c r="H1" t="s">
-        <v>419</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
       </c>
       <c r="J1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K1" t="s">
         <v>420</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>421</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>422</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>423</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>424</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" t="s">
         <v>425</v>
       </c>
-      <c r="P1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>426</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>427</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>428</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>429</v>
-      </c>
-      <c r="U1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7764,43 +7761,43 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
         <v>431</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>432</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>433</v>
-      </c>
-      <c r="G1" t="s">
-        <v>434</v>
       </c>
       <c r="H1" t="s">
         <v>300</v>
       </c>
       <c r="I1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" t="s">
         <v>435</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>436</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>437</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>438</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>439</v>
-      </c>
-      <c r="N1" t="s">
-        <v>440</v>
       </c>
       <c r="O1" t="s">
         <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7867,7 +7864,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G3" t="s">
         <v>186</v>
@@ -7914,7 +7911,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G4" t="s">
         <v>186</v>
@@ -7984,7 +7981,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -8048,19 +8045,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
         <v>443</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>444</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>445</v>
-      </c>
-      <c r="H1" t="s">
-        <v>446</v>
       </c>
       <c r="I1" t="s">
         <v>254</v>
@@ -8092,7 +8089,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -8125,34 +8122,34 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" t="s">
         <v>448</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>449</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>450</v>
-      </c>
-      <c r="G1" t="s">
-        <v>451</v>
       </c>
       <c r="H1" t="s">
         <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" t="s">
         <v>452</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>453</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>454</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>455</v>
-      </c>
-      <c r="M1" t="s">
-        <v>456</v>
       </c>
       <c r="N1" t="s">
         <v>271</v>
@@ -8161,19 +8158,19 @@
         <v>272</v>
       </c>
       <c r="P1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q1" t="s">
         <v>457</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>458</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>459</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>460</v>
-      </c>
-      <c r="T1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8190,7 +8187,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>46</v>
@@ -8252,7 +8249,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -8333,7 +8330,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>182</v>
@@ -8359,7 +8356,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8376,7 +8373,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8393,7 +8390,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8410,7 +8407,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8427,7 +8424,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -8468,19 +8465,19 @@
         <v>254</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8594,16 +8591,16 @@
         <v>254</v>
       </c>
       <c r="E1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>473</v>
-      </c>
-      <c r="H1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -12012,16 +12009,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12238,6 +12225,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
@@ -12247,16 +12244,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12273,4 +12260,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8412AE82-ECF2-4132-8143-CD285220AC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C86085-AE58-4F21-B6FF-FBF677269556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="2200" yWindow="160" windowWidth="14400" windowHeight="9920" firstSheet="10" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="478">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -743,9 +743,6 @@
     <t>VALIDATEPERSON_NAME</t>
   </si>
   <si>
-    <t>SCR_PERSON_ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1485,6 +1482,21 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
+  </si>
+  <si>
+    <t>SCP_PERSON_ID</t>
+  </si>
+  <si>
+    <t>SCP_ID1</t>
+  </si>
+  <si>
+    <t>SCP_ID2</t>
+  </si>
+  <si>
+    <t>SCP_ID3</t>
+  </si>
+  <si>
+    <t>SCP_ID4</t>
   </si>
 </sst>
 </file>
@@ -2765,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2779,7 +2791,8 @@
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -2811,7 +2824,7 @@
         <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>226</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2829,16 +2842,19 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
         <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2856,16 +2872,19 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2883,16 +2902,19 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2910,21 +2932,24 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2936,10 +2961,10 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
@@ -2962,10 +2987,10 @@
         <v>48</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
@@ -2988,10 +3013,10 @@
         <v>48</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
@@ -3002,7 +3027,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3014,10 +3039,10 @@
         <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -3041,10 +3066,10 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
@@ -3068,10 +3093,10 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
@@ -3095,10 +3120,10 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
@@ -3122,10 +3147,10 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
@@ -3164,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
         <v>112</v>
@@ -3179,31 +3204,31 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="N1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" t="s">
         <v>233</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>234</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>236</v>
-      </c>
-      <c r="R1" t="s">
-        <v>237</v>
       </c>
       <c r="S1" t="s">
         <v>175</v>
@@ -3221,16 +3246,16 @@
         <v>135</v>
       </c>
       <c r="X1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y1" t="s">
         <v>238</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>239</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>240</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>241</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -3239,19 +3264,19 @@
         <v>92</v>
       </c>
       <c r="AD1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE1" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>245</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -3307,7 +3332,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>31</v>
@@ -3317,7 +3342,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3383,82 +3408,82 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>250</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>251</v>
-      </c>
-      <c r="H1" t="s">
-        <v>252</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3469,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3514,22 +3539,22 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>273</v>
-      </c>
-      <c r="H1" t="s">
-        <v>274</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3540,10 +3565,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
         <v>276</v>
-      </c>
-      <c r="F2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3556,10 +3581,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
         <v>276</v>
-      </c>
-      <c r="F3" t="s">
-        <v>277</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -3618,46 +3643,46 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3668,12 +3693,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3693,7 +3718,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3781,178 +3806,178 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="BJ1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4094,160 +4119,160 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AQ1" s="11" t="s">
-        <v>367</v>
-      </c>
       <c r="AR1" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AU1" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4268,16 +4293,16 @@
         <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -4286,13 +4311,13 @@
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
@@ -4371,16 +4396,16 @@
         <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -4389,13 +4414,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -4476,16 +4501,16 @@
         <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -4494,13 +4519,13 @@
         <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -4579,16 +4604,16 @@
         <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -4597,13 +4622,13 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>46</v>
@@ -4682,16 +4707,16 @@
         <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
@@ -4700,13 +4725,13 @@
         <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>46</v>
@@ -4787,34 +4812,34 @@
         <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -5908,7 +5933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -5963,94 +5988,94 @@
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>386</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AF1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -6066,19 +6091,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>184</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>22</v>
@@ -6087,10 +6112,10 @@
         <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6131,19 +6156,19 @@
         <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>184</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -6152,73 +6177,73 @@
         <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>193</v>
@@ -6238,19 +6263,19 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -6259,76 +6284,76 @@
         <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6345,19 +6370,19 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -6366,10 +6391,10 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -7197,25 +7222,25 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>392</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>393</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>394</v>
-      </c>
-      <c r="H1" t="s">
-        <v>395</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>182</v>
@@ -7238,7 +7263,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
@@ -7276,7 +7301,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
@@ -7312,7 +7337,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -7333,10 +7358,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" t="s">
         <v>397</v>
-      </c>
-      <c r="G5" t="s">
-        <v>398</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -7384,49 +7409,49 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7477,7 +7502,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
@@ -7527,7 +7552,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
@@ -7559,7 +7584,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
@@ -7628,58 +7653,58 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>417</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" t="s">
         <v>418</v>
       </c>
-      <c r="I1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>419</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>420</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>421</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>422</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>423</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" t="s">
         <v>424</v>
       </c>
-      <c r="P1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>426</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>427</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>428</v>
-      </c>
-      <c r="U1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7761,43 +7786,43 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
         <v>430</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>431</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>432</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" t="s">
         <v>433</v>
       </c>
-      <c r="H1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>437</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>438</v>
-      </c>
-      <c r="N1" t="s">
-        <v>439</v>
       </c>
       <c r="O1" t="s">
         <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7864,7 +7889,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
         <v>186</v>
@@ -7911,7 +7936,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G4" t="s">
         <v>186</v>
@@ -7981,7 +8006,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -8045,22 +8070,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
         <v>442</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>443</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>444</v>
       </c>
-      <c r="H1" t="s">
-        <v>445</v>
-      </c>
       <c r="I1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8089,7 +8114,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8122,55 +8147,55 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" t="s">
         <v>447</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>448</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>449</v>
-      </c>
-      <c r="G1" t="s">
-        <v>450</v>
       </c>
       <c r="H1" t="s">
         <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" t="s">
         <v>451</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>452</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>453</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>454</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" t="s">
         <v>455</v>
       </c>
-      <c r="N1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>456</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>457</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>458</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>459</v>
-      </c>
-      <c r="T1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8187,7 +8212,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>46</v>
@@ -8249,7 +8274,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -8330,7 +8355,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>182</v>
@@ -8356,7 +8381,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8373,7 +8398,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8390,7 +8415,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8407,7 +8432,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8424,7 +8449,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8462,22 +8487,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8588,19 +8613,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>472</v>
-      </c>
-      <c r="H1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -12000,15 +12025,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12225,6 +12241,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12236,14 +12261,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12262,6 +12279,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C86085-AE58-4F21-B6FF-FBF677269556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77751EF-BFEC-4018-B4EE-6C46F77E3386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="160" windowWidth="14400" windowHeight="9920" firstSheet="10" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="479">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>SCP_ID4</t>
+  </si>
+  <si>
+    <t>HSupervisor ContraCosta</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
@@ -4097,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4719,7 +4722,7 @@
         <v>386</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>46</v>
@@ -12025,6 +12028,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12241,15 +12253,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12261,6 +12264,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12279,14 +12290,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77751EF-BFEC-4018-B4EE-6C46F77E3386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B84369-9069-411D-A99A-3F2CC17C2BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -1499,7 +1499,7 @@
     <t>SCP_ID4</t>
   </si>
   <si>
-    <t>HSupervisor ContraCosta</t>
+    <t>Hotline Staff1 Contra Costa</t>
   </si>
 </sst>
 </file>
@@ -4100,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12028,15 +12028,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12253,6 +12244,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12264,14 +12264,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12290,6 +12282,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B84369-9069-411D-A99A-3F2CC17C2BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD20893-9EC2-40ED-92B6-EAE11B532AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="2200" yWindow="160" windowWidth="14400" windowHeight="9920" firstSheet="17" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="480">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1500,6 +1500,9 @@
   </si>
   <si>
     <t>Hotline Staff1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Tribal Inquiry</t>
   </si>
 </sst>
 </file>
@@ -4100,7 +4103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -5936,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6159,7 +6162,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>377</v>
@@ -12028,6 +12031,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12244,15 +12256,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12264,6 +12267,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12282,14 +12293,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD20893-9EC2-40ED-92B6-EAE11B532AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A417D43-A00E-4170-8C6B-E6908A63CB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="160" windowWidth="14400" windowHeight="9920" firstSheet="17" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="480">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -5939,7 +5939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -8338,7 +8338,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9309,8 +9309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9744,24 +9744,26 @@
         <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -9778,9 +9780,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
+    <hyperlink ref="S5" r:id="rId2" xr:uid="{BE5E49EA-2777-42C8-83F1-C3714E4214B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9789,8 +9792,8 @@
   <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV8" sqref="AV8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A417D43-A00E-4170-8C6B-E6908A63CB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134F8CD-3C93-4865-904E-E0C9EC6C6627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="25" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="477">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -743,6 +743,9 @@
     <t>VALIDATEPERSON_NAME</t>
   </si>
   <si>
+    <t>SCR_PERSON_ID</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1199,6 +1202,9 @@
     <t>Completed</t>
   </si>
   <si>
+    <t>person2</t>
+  </si>
+  <si>
     <t>Reporting Party</t>
   </si>
   <si>
@@ -1482,21 +1488,6 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
-  </si>
-  <si>
-    <t>SCP_PERSON_ID</t>
-  </si>
-  <si>
-    <t>SCP_ID1</t>
-  </si>
-  <si>
-    <t>SCP_ID2</t>
-  </si>
-  <si>
-    <t>SCP_ID3</t>
-  </si>
-  <si>
-    <t>SCP_ID4</t>
   </si>
   <si>
     <t>Hotline Staff1 Contra Costa</t>
@@ -1964,7 +1955,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B20" activeCellId="1" sqref="A11 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2104,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2614,7 +2605,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>49</v>
@@ -2646,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>49</v>
@@ -2678,7 +2669,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>49</v>
@@ -2783,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2797,8 +2788,7 @@
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="9" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -2830,7 +2820,7 @@
         <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>473</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2848,19 +2838,16 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H2" t="s">
         <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2878,19 +2865,16 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2908,19 +2892,16 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2938,24 +2919,21 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2967,10 +2945,10 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
@@ -2993,10 +2971,10 @@
         <v>48</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
@@ -3019,10 +2997,10 @@
         <v>48</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
@@ -3033,7 +3011,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3045,10 +3023,10 @@
         <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -3072,10 +3050,10 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
@@ -3099,10 +3077,10 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
@@ -3126,10 +3104,10 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
@@ -3153,10 +3131,10 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
@@ -3195,7 +3173,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
         <v>112</v>
@@ -3210,31 +3188,31 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="N1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s">
         <v>175</v>
@@ -3252,16 +3230,16 @@
         <v>135</v>
       </c>
       <c r="X1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -3270,19 +3248,19 @@
         <v>92</v>
       </c>
       <c r="AD1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AE1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AH1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -3338,7 +3316,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>31</v>
@@ -3348,7 +3326,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3414,82 +3392,82 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3500,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3545,22 +3523,22 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3571,10 +3549,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3587,10 +3565,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -3649,46 +3627,46 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3699,12 +3677,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3724,7 +3702,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3812,178 +3790,178 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="AG1" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="AH1" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4103,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4125,160 +4103,160 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AV1" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AX1" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AY1" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AZ1" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BA1" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BB1" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4299,16 +4277,16 @@
         <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -4317,13 +4295,13 @@
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
@@ -4402,16 +4380,16 @@
         <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -4420,13 +4398,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -4507,16 +4485,16 @@
         <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -4525,13 +4503,13 @@
         <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -4610,16 +4588,16 @@
         <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -4628,13 +4606,13 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>46</v>
@@ -4694,107 +4672,107 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="J6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1" t="s">
+      <c r="N6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AU6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1" t="s">
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1" t="s">
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1" t="s">
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BB6" s="1" t="s">
+      <c r="BB6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BC6" s="7" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4818,34 +4796,34 @@
         <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -4878,30 +4856,18 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
-      <c r="AT7" s="1" t="s">
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AU7" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="AV7" s="1"/>
-      <c r="AW7" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
-      <c r="AY7" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -5994,94 +5960,94 @@
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -6097,19 +6063,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
+      <c r="H2" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>22</v>
@@ -6118,10 +6084,10 @@
         <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6162,19 +6128,19 @@
         <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
+      <c r="H3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -6183,10 +6149,10 @@
         <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>48</v>
@@ -6195,61 +6161,61 @@
         <v>48</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>193</v>
@@ -6269,19 +6235,19 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -6290,76 +6256,76 @@
         <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6376,19 +6342,19 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -6397,10 +6363,10 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -6433,7 +6399,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6470,7 +6436,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6953,7 +6919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -7021,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -7228,25 +7194,25 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>182</v>
@@ -7269,7 +7235,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
@@ -7307,7 +7273,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
@@ -7343,7 +7309,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -7364,10 +7330,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -7415,49 +7381,49 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7508,7 +7474,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
@@ -7558,7 +7524,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
@@ -7590,7 +7556,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
@@ -7659,58 +7625,58 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="R1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="U1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7792,43 +7758,43 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O1" t="s">
         <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7895,7 +7861,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G3" t="s">
         <v>186</v>
@@ -7942,7 +7908,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G4" t="s">
         <v>186</v>
@@ -8012,7 +7978,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -8076,22 +8042,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8120,7 +8086,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8153,55 +8119,55 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H1" t="s">
         <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="R1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="S1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="T1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8218,7 +8184,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>46</v>
@@ -8280,7 +8246,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -8337,8 +8303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8361,7 +8327,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>182</v>
@@ -8387,7 +8353,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8404,7 +8370,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8421,7 +8387,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8438,7 +8404,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8455,7 +8421,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -8493,22 +8459,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8619,19 +8585,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8987,10 +8953,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9101,6 +9067,26 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9111,7 +9097,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9279,6 +9265,9 @@
       <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -9307,10 +9296,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9346,7 +9335,7 @@
     <col min="32" max="32" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9444,7 +9433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -9504,7 +9493,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -9601,11 +9590,8 @@
       <c r="AF3" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -9702,11 +9688,8 @@
       <c r="AF4" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -9744,43 +9727,70 @@
         <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
-    <hyperlink ref="S5" r:id="rId2" xr:uid="{BE5E49EA-2777-42C8-83F1-C3714E4214B6}"/>
+    <hyperlink ref="S5" r:id="rId2" xr:uid="{0051812B-AAE2-4215-A1AC-9916CE866A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -9792,8 +9802,8 @@
   <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11470,7 +11480,7 @@
         <v>186</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>186</v>
@@ -12034,12 +12044,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12260,19 +12271,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12297,11 +12309,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134F8CD-3C93-4865-904E-E0C9EC6C6627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF3AD1E-CFE1-4B31-BFBD-9BA951429BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="25" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="481">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -743,9 +743,6 @@
     <t>VALIDATEPERSON_NAME</t>
   </si>
   <si>
-    <t>SCR_PERSON_ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1494,6 +1491,21 @@
   </si>
   <si>
     <t>Tribal Inquiry</t>
+  </si>
+  <si>
+    <t>SCP_PERSON_ID</t>
+  </si>
+  <si>
+    <t>SCP_ID1</t>
+  </si>
+  <si>
+    <t>SCP_ID2</t>
+  </si>
+  <si>
+    <t>SCP_ID3</t>
+  </si>
+  <si>
+    <t>SCP_ID4</t>
   </si>
 </sst>
 </file>
@@ -2774,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2820,7 +2832,7 @@
         <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>226</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2838,16 +2850,19 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
         <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2865,16 +2880,19 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2892,16 +2910,19 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2919,21 +2940,24 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2945,10 +2969,10 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
@@ -2971,10 +2995,10 @@
         <v>48</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
@@ -2997,10 +3021,10 @@
         <v>48</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
@@ -3011,7 +3035,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3023,10 +3047,10 @@
         <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -3050,10 +3074,10 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
@@ -3077,10 +3101,10 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
@@ -3104,10 +3128,10 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
@@ -3131,10 +3155,10 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
@@ -3173,7 +3197,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
         <v>112</v>
@@ -3188,31 +3212,31 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="N1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" t="s">
         <v>233</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>234</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>236</v>
-      </c>
-      <c r="R1" t="s">
-        <v>237</v>
       </c>
       <c r="S1" t="s">
         <v>175</v>
@@ -3230,16 +3254,16 @@
         <v>135</v>
       </c>
       <c r="X1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y1" t="s">
         <v>238</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>239</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>240</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>241</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -3248,19 +3272,19 @@
         <v>92</v>
       </c>
       <c r="AD1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE1" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>245</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -3316,7 +3340,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>31</v>
@@ -3326,7 +3350,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3392,82 +3416,82 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>250</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>251</v>
-      </c>
-      <c r="H1" t="s">
-        <v>252</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3478,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3523,22 +3547,22 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>273</v>
-      </c>
-      <c r="H1" t="s">
-        <v>274</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3549,10 +3573,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
         <v>276</v>
-      </c>
-      <c r="F2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3565,10 +3589,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
         <v>276</v>
-      </c>
-      <c r="F3" t="s">
-        <v>277</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -3627,46 +3651,46 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3677,12 +3701,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3702,7 +3726,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3790,178 +3814,178 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="BJ1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4103,160 +4127,160 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AQ1" s="11" t="s">
-        <v>367</v>
-      </c>
       <c r="AR1" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AU1" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4277,16 +4301,16 @@
         <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -4295,13 +4319,13 @@
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
@@ -4380,16 +4404,16 @@
         <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -4398,13 +4422,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -4485,16 +4509,16 @@
         <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -4503,13 +4527,13 @@
         <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -4588,16 +4612,16 @@
         <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -4606,13 +4630,13 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>46</v>
@@ -4691,31 +4715,31 @@
         <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>187</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>46</v>
@@ -4796,34 +4820,34 @@
         <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -5960,94 +5984,94 @@
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AF1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -6063,19 +6087,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>184</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>22</v>
@@ -6084,10 +6108,10 @@
         <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6128,19 +6152,19 @@
         <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>184</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -6149,73 +6173,73 @@
         <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>193</v>
@@ -6235,19 +6259,19 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -6256,76 +6280,76 @@
         <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6342,19 +6366,19 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -6363,10 +6387,10 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -7194,25 +7218,25 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>393</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>394</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>395</v>
-      </c>
-      <c r="H1" t="s">
-        <v>396</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>182</v>
@@ -7235,7 +7259,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
@@ -7273,7 +7297,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
@@ -7309,7 +7333,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -7330,10 +7354,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" t="s">
         <v>398</v>
-      </c>
-      <c r="G5" t="s">
-        <v>399</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -7381,49 +7405,49 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7474,7 +7498,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
@@ -7524,7 +7548,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
@@ -7556,7 +7580,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
@@ -7625,58 +7649,58 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" t="s">
         <v>417</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>418</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" t="s">
         <v>419</v>
       </c>
-      <c r="I1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>420</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>421</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>422</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>423</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>424</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" t="s">
         <v>425</v>
       </c>
-      <c r="P1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>426</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>427</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>428</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>429</v>
-      </c>
-      <c r="U1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7758,43 +7782,43 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
         <v>431</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>432</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>433</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" t="s">
         <v>434</v>
       </c>
-      <c r="H1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>435</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>436</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>437</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>438</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>439</v>
-      </c>
-      <c r="N1" t="s">
-        <v>440</v>
       </c>
       <c r="O1" t="s">
         <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7861,7 +7885,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G3" t="s">
         <v>186</v>
@@ -7908,7 +7932,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G4" t="s">
         <v>186</v>
@@ -7978,7 +8002,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -8042,22 +8066,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
         <v>443</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>444</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>445</v>
       </c>
-      <c r="H1" t="s">
-        <v>446</v>
-      </c>
       <c r="I1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8086,7 +8110,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -8119,55 +8143,55 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" t="s">
         <v>448</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>449</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>450</v>
-      </c>
-      <c r="G1" t="s">
-        <v>451</v>
       </c>
       <c r="H1" t="s">
         <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" t="s">
         <v>452</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>453</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>454</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>455</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" t="s">
         <v>456</v>
       </c>
-      <c r="N1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>457</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>458</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>459</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>460</v>
-      </c>
-      <c r="T1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8184,7 +8208,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>46</v>
@@ -8246,7 +8270,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -8303,7 +8327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -8327,7 +8351,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>182</v>
@@ -8353,7 +8377,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8370,7 +8394,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8387,7 +8411,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8404,7 +8428,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8421,7 +8445,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -8459,22 +8483,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8585,19 +8609,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>473</v>
-      </c>
-      <c r="H1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -12044,16 +12068,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12270,6 +12284,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12280,16 +12304,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12308,6 +12322,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF3AD1E-CFE1-4B31-BFBD-9BA951429BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9E905-8E18-4540-9DD9-CF247F16CF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -2786,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2842,7 +2842,9 @@
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
@@ -2872,7 +2874,9 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
@@ -2902,7 +2906,9 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -2932,7 +2938,9 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -2962,6 +2970,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
@@ -2988,6 +2999,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
@@ -3014,6 +3028,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
@@ -3040,6 +3057,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
@@ -3066,7 +3086,9 @@
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
@@ -3093,7 +3115,9 @@
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
@@ -3120,7 +3144,9 @@
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
@@ -3147,7 +3173,9 @@
       <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -5929,7 +5957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -9826,8 +9854,8 @@
   <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12068,6 +12096,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12284,16 +12322,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12304,6 +12332,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12322,16 +12360,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9E905-8E18-4540-9DD9-CF247F16CF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4621AB5C-6995-42DD-8C73-1ACC2C2BFEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="480">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1197,9 +1197,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>person2</t>
   </si>
   <si>
     <t>Reporting Party</t>
@@ -1964,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" activeCellId="1" sqref="A11 B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2089,12 +2086,23 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2105,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2687,6 +2695,134 @@
         <v>49</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2784,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2832,7 +2968,7 @@
         <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2864,7 +3000,7 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2875,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -2896,7 +3032,7 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2907,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -2928,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2939,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -2960,17 +3096,17 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -2991,16 +3127,19 @@
       <c r="I6" t="s">
         <v>48</v>
       </c>
+      <c r="J6" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -3008,85 +3147,94 @@
       <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G8" t="s">
         <v>226</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G9" t="s">
         <v>227</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>228</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -3109,13 +3257,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
@@ -3124,10 +3272,10 @@
       <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="21" t="s">
         <v>226</v>
       </c>
       <c r="H11" t="s">
@@ -3138,13 +3286,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
@@ -3153,11 +3301,11 @@
       <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" t="s">
-        <v>226</v>
+      <c r="F12" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
@@ -3167,13 +3315,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
@@ -3192,6 +3340,122 @@
         <v>48</v>
       </c>
       <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4131,10 +4395,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BC25"/>
+  <dimension ref="A1:BC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4337,8 +4601,8 @@
       <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>378</v>
+      <c r="J2" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -4347,18 +4611,20 @@
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -4440,8 +4706,8 @@
       <c r="I3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>378</v>
+      <c r="J3" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -4450,13 +4716,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -4545,8 +4811,8 @@
       <c r="I4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>378</v>
+      <c r="J4" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -4555,13 +4821,13 @@
         <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -4648,8 +4914,8 @@
       <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>378</v>
+      <c r="J5" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -4658,18 +4924,20 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R5" s="12"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -4752,22 +5020,22 @@
         <v>187</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>46</v>
@@ -4829,123 +5097,169 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -4967,8 +5281,9 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="11"/>
+      <c r="AT8" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
@@ -5001,7 +5316,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="12"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -5025,7 +5340,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="12"/>
+      <c r="AU9" s="11"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
@@ -5115,7 +5430,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -5139,7 +5454,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="11"/>
+      <c r="AU11" s="12"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
@@ -5172,7 +5487,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="12"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -5196,7 +5511,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="12"/>
+      <c r="AU12" s="11"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -5253,7 +5568,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
+      <c r="AU13" s="12"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -5286,7 +5601,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -5343,7 +5658,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="12"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -5457,7 +5772,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -5514,7 +5829,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="12"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -5628,7 +5943,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -5685,7 +6000,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="12"/>
+      <c r="W21" s="11"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -5947,6 +6262,63 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5955,10 +6327,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6018,13 +6390,13 @@
         <v>333</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>335</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>336</v>
@@ -6066,7 +6438,7 @@
         <v>257</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>259</v>
@@ -6075,7 +6447,7 @@
         <v>354</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>357</v>
@@ -6124,10 +6496,10 @@
         <v>184</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>388</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>22</v>
@@ -6136,10 +6508,10 @@
         <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6180,7 +6552,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>377</v>
@@ -6189,10 +6561,10 @@
         <v>184</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -6201,196 +6573,196 @@
         <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -6403,10 +6775,10 @@
         <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -6415,51 +6787,121 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
+      <c r="O5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -6533,7 +6975,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="5"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -6570,7 +7012,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="6"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6644,7 +7086,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -6681,7 +7123,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -6755,7 +7197,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -6792,7 +7234,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -6961,6 +7403,43 @@
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
     </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6969,10 +7448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7153,16 +7632,16 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7179,17 +7658,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -7203,6 +7680,25 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7216,7 +7712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -7246,25 +7742,25 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>392</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>393</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>394</v>
-      </c>
-      <c r="H1" t="s">
-        <v>395</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>182</v>
@@ -7287,7 +7783,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
@@ -7325,7 +7821,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
@@ -7361,7 +7857,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -7382,10 +7878,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" t="s">
         <v>397</v>
-      </c>
-      <c r="G5" t="s">
-        <v>398</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -7398,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7433,49 +7929,49 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7526,7 +8022,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
@@ -7576,7 +8072,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
@@ -7608,7 +8104,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
@@ -7641,6 +8137,14 @@
       <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7677,58 +8181,58 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>417</v>
-      </c>
-      <c r="H1" t="s">
-        <v>418</v>
       </c>
       <c r="I1" t="s">
         <v>252</v>
       </c>
       <c r="J1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" t="s">
         <v>419</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>420</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>421</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>422</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>423</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" t="s">
         <v>424</v>
       </c>
-      <c r="P1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>426</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>427</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>428</v>
-      </c>
-      <c r="U1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7776,10 +8280,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" activeCellId="1" sqref="A7:XFD7 A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7810,43 +8314,43 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
         <v>430</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>431</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>432</v>
-      </c>
-      <c r="G1" t="s">
-        <v>433</v>
       </c>
       <c r="H1" t="s">
         <v>299</v>
       </c>
       <c r="I1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>437</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>438</v>
-      </c>
-      <c r="N1" t="s">
-        <v>439</v>
       </c>
       <c r="O1" t="s">
         <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7913,7 +8417,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
         <v>186</v>
@@ -7960,7 +8464,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G4" t="s">
         <v>186</v>
@@ -8030,7 +8534,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -8060,6 +8564,56 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8094,19 +8648,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
         <v>442</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>443</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>444</v>
-      </c>
-      <c r="H1" t="s">
-        <v>445</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
@@ -8138,7 +8692,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8171,34 +8725,34 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" t="s">
         <v>447</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>448</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>449</v>
-      </c>
-      <c r="G1" t="s">
-        <v>450</v>
       </c>
       <c r="H1" t="s">
         <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" t="s">
         <v>451</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>452</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>453</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>454</v>
-      </c>
-      <c r="M1" t="s">
-        <v>455</v>
       </c>
       <c r="N1" t="s">
         <v>270</v>
@@ -8207,19 +8761,19 @@
         <v>271</v>
       </c>
       <c r="P1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q1" t="s">
         <v>456</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>457</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>458</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>459</v>
-      </c>
-      <c r="T1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8236,7 +8790,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>46</v>
@@ -8298,7 +8852,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -8353,10 +8907,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8379,7 +8933,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>182</v>
@@ -8405,7 +8959,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8422,7 +8976,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8439,7 +8993,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8456,24 +9010,41 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>464</v>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8514,19 +9085,19 @@
         <v>253</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8640,16 +9211,16 @@
         <v>253</v>
       </c>
       <c r="E1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>472</v>
-      </c>
-      <c r="H1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -9005,10 +9576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9139,6 +9710,26 @@
         <v>49</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9146,10 +9737,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9323,21 +9914,44 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9348,10 +9962,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9839,23 +10453,122 @@
         <v>46</v>
       </c>
     </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="S5" r:id="rId2" xr:uid="{0051812B-AAE2-4215-A1AC-9916CE866A1A}"/>
+    <hyperlink ref="S6" r:id="rId3" xr:uid="{5F0FC2D8-3A46-4688-A3AE-7D2028F78211}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DC11"/>
+  <dimension ref="A1:DC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11873,10 +12586,10 @@
     </row>
     <row r="10" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -11894,7 +12607,7 @@
         <v>184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>46</v>
@@ -11906,7 +12619,7 @@
         <v>186</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>186</v>
@@ -11951,27 +12664,35 @@
         <v>186</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE10" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AF10" s="1" t="s">
         <v>191</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="AH10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -12031,7 +12752,9 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
+      <c r="CP10" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="CQ10" s="8" t="s">
         <v>193</v>
       </c>
@@ -12051,42 +12774,522 @@
       <c r="DC10" s="1"/>
     </row>
     <row r="11" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CC11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CF11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CI11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CM11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CO11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CP11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CQ11" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+    </row>
+    <row r="12" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+    </row>
+    <row r="13" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12096,16 +13299,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12322,6 +13515,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12332,16 +13535,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12360,6 +13553,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4621AB5C-6995-42DD-8C73-1ACC2C2BFEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847750C1-97EA-4618-80AE-5E92B2D2DB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -7451,7 +7451,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9964,8 +9964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10393,7 +10393,7 @@
         <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>46</v>
@@ -10491,7 +10491,7 @@
         <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>46</v>
@@ -10566,9 +10566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\CARES---Selenium-Automation-master\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5E4D3-9197-49BF-B36A-811E67D71054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4F8AC-4189-4941-8B2B-658E5C61D570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="15" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="606">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -597,6 +597,9 @@
     <t>CURRENT_SCREENINGS</t>
   </si>
   <si>
+    <t>RECORD_STATUS</t>
+  </si>
+  <si>
     <t>IMMEDIATE_INVESTIGATIONS</t>
   </si>
   <si>
@@ -672,6 +675,9 @@
     <t>https://www.cdss.ca.gov/inforesources/letters-regulations/legislation-and-regulations/child-welfare-services-regulations</t>
   </si>
   <si>
+    <t>Approved</t>
+  </si>
+  <si>
     <t>SCREENING_NARRATIVE</t>
   </si>
   <si>
@@ -984,6 +990,30 @@
     <t>SCP_ID_VERIFY</t>
   </si>
   <si>
+    <t>ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>LAST_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>APPROXIMATE_AGE_VERIFY</t>
+  </si>
+  <si>
+    <t>COLLATERAL_TYPR_VERIFY</t>
+  </si>
+  <si>
+    <t>COUNTRY_VERIFY</t>
+  </si>
+  <si>
+    <t>FURTHER_CSE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_OF_BIRTH_VERIFY</t>
+  </si>
+  <si>
     <t>CUSTOM1</t>
   </si>
   <si>
@@ -1092,9 +1122,6 @@
     <t>ADDRESS_VALIDATION_VERIFY</t>
   </si>
   <si>
-    <t>COUNTRY_VERIFY</t>
-  </si>
-  <si>
     <t>ZIPCODE_VERIFY</t>
   </si>
   <si>
@@ -1206,6 +1233,9 @@
     <t>ALLEGATIONS_TAB</t>
   </si>
   <si>
+    <t>SCR_ALLEGATIONID_VERIFY</t>
+  </si>
+  <si>
     <t>Caretaker Absence/Incapacity</t>
   </si>
   <si>
@@ -1401,6 +1431,9 @@
     <t>NARRATIVE</t>
   </si>
   <si>
+    <t>INITIAL_ICWA_INQUIRY_TEXT</t>
+  </si>
+  <si>
     <t>SCR_TRIBAL_CONTACTID_VERIFY</t>
   </si>
   <si>
@@ -1506,6 +1539,33 @@
     <t>RECEIVESFEDERALSERVICETRIBALBENEFIT</t>
   </si>
   <si>
+    <t>HEADERCONTACTID</t>
+  </si>
+  <si>
+    <t>HEADERCONTACTSTARTDATETIME</t>
+  </si>
+  <si>
+    <t>HEADERCONTACTPURPOSE</t>
+  </si>
+  <si>
+    <t>HEADERCONTACTSTATUS</t>
+  </si>
+  <si>
+    <t>HEADERINITIALTCWAINQUIRY</t>
+  </si>
+  <si>
+    <t>HEADERONBEHALFOFCHILD</t>
+  </si>
+  <si>
+    <t>HEADERPARTICIPANT</t>
+  </si>
+  <si>
+    <t>HEADERPERSON</t>
+  </si>
+  <si>
+    <t>HEADEROTHERSTAFFPRESENT</t>
+  </si>
+  <si>
     <t>Tribal Collaboration</t>
   </si>
   <si>
@@ -1710,9 +1770,15 @@
     <t>ASSIGNED_TO_VERIFY</t>
   </si>
   <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
     <t>Screening History</t>
   </si>
   <si>
+    <t>Country Assigned to Screening</t>
+  </si>
+  <si>
     <t>RECALL</t>
   </si>
   <si>
@@ -1809,67 +1875,16 @@
     <t>REASSIGN_BTN</t>
   </si>
   <si>
-    <t>NEW_VALUE</t>
-  </si>
-  <si>
-    <t>Country Assigned to Screening</t>
-  </si>
-  <si>
-    <t>HEADERCONTACTPURPOSE</t>
-  </si>
-  <si>
-    <t>HEADERCONTACTSTARTDATETIME</t>
-  </si>
-  <si>
-    <t>HEADERCONTACTID</t>
-  </si>
-  <si>
-    <t>HEADERCONTACTSTATUS</t>
-  </si>
-  <si>
-    <t>HEADERINITIALTCWAINQUIRY</t>
-  </si>
-  <si>
-    <t>HEADERONBEHALFOFCHILD</t>
-  </si>
-  <si>
-    <t>HEADERPARTICIPANT</t>
-  </si>
-  <si>
-    <t>HEADERPERSON</t>
-  </si>
-  <si>
-    <t>HEADEROTHERSTAFFPRESENT</t>
-  </si>
-  <si>
-    <t>RECORD_STATUS</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>ROLE_VERIFY</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>LAST_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>APPROXIMATE_AGE_VERIFY</t>
-  </si>
-  <si>
-    <t>COLLATERAL_TYPR_VERIFY</t>
-  </si>
-  <si>
-    <t>FURTHER_CSE_VERIFY</t>
-  </si>
-  <si>
-    <t>DATE_OF_BIRTH_VERIFY</t>
-  </si>
-  <si>
-    <t>INITIAL_ICWA_INQUIRY_TEXT</t>
+    <t>SCP_ID1</t>
+  </si>
+  <si>
+    <t>SCP_ID2</t>
+  </si>
+  <si>
+    <t>SCP_ID3</t>
+  </si>
+  <si>
+    <t>SCP_ID4</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2697,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2928,6 +2943,9 @@
       <c r="F5" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="V5" s="22"/>
       <c r="AC5" s="23"/>
     </row>
@@ -2948,6 +2966,9 @@
         <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>138</v>
       </c>
       <c r="V6" s="23"/>
@@ -3060,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3118,85 +3139,85 @@
         <v>175</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>591</v>
+        <v>176</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>154</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>162</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
@@ -3256,7 +3277,7 @@
         <v>138</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U2" s="2"/>
     </row>
@@ -3484,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>592</v>
+        <v>202</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>136</v>
@@ -3523,7 +3544,7 @@
         <v>138</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -3553,8 +3574,8 @@
   <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB11" sqref="CB11"/>
+      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3664,58 +3685,58 @@
         <v>117</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>18</v>
@@ -3727,25 +3748,25 @@
         <v>20</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG1" s="8" t="s">
         <v>22</v>
@@ -3754,190 +3775,190 @@
         <v>21</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BK1" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BL1" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BN1" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BO1" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="BP1" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="BQ1" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="BR1" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BS1" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BT1" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BU1" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BV1" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BW1" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BX1" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BY1" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="BZ1" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CA1" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CB1" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CC1" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CD1" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CK1" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:107" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -3963,7 +3984,7 @@
         <v>81</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>136</v>
@@ -4035,7 +4056,7 @@
         <v>77</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG2" s="16" t="s">
         <v>77</v>
@@ -4108,7 +4129,7 @@
       <c r="CO2" s="16"/>
       <c r="CP2" s="16"/>
       <c r="CQ2" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR2" s="16"/>
     </row>
@@ -4135,80 +4156,80 @@
         <v>81</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF3" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>287</v>
-      </c>
       <c r="AG3" s="18" t="s">
         <v>136</v>
       </c>
@@ -4396,10 +4417,10 @@
         <v>139</v>
       </c>
       <c r="CQ3" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR3" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="CS3" s="19"/>
       <c r="CT3" s="19"/>
@@ -4436,80 +4457,80 @@
         <v>81</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>287</v>
-      </c>
       <c r="AG4" s="8" t="s">
         <v>136</v>
       </c>
@@ -4697,10 +4718,10 @@
         <v>139</v>
       </c>
       <c r="CQ4" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR4" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
@@ -4737,7 +4758,7 @@
         <v>81</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>136</v>
@@ -4758,7 +4779,7 @@
         <v>77</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>77</v>
@@ -4794,22 +4815,22 @@
         <v>77</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC5" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AE5" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG5" s="8" t="s">
         <v>136</v>
@@ -4884,10 +4905,10 @@
       <c r="CO5" s="8"/>
       <c r="CP5" s="8"/>
       <c r="CQ5" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR5" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4911,7 +4932,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>136</v>
@@ -4932,7 +4953,7 @@
         <v>77</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>77</v>
@@ -4968,22 +4989,22 @@
         <v>77</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AE6" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG6" s="8" t="s">
         <v>136</v>
@@ -5058,15 +5079,15 @@
       <c r="CO6" s="8"/>
       <c r="CP6" s="8"/>
       <c r="CQ6" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR6" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -5083,7 +5104,7 @@
         <v>81</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>139</v>
@@ -5100,7 +5121,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>77</v>
@@ -5136,18 +5157,18 @@
         <v>77</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
@@ -5237,7 +5258,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>136</v>
@@ -5258,7 +5279,7 @@
         <v>77</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>77</v>
@@ -5309,7 +5330,7 @@
         <v>136</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>136</v>
@@ -5320,7 +5341,9 @@
       <c r="AI8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -5381,10 +5404,10 @@
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="CQ8" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR8" s="8" t="s">
         <v>77</v>
@@ -5424,7 +5447,7 @@
         <v>77</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>136</v>
@@ -5445,7 +5468,7 @@
         <v>77</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>77</v>
@@ -5475,7 +5498,7 @@
         <v>77</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>77</v>
@@ -5496,7 +5519,7 @@
         <v>77</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>136</v>
@@ -5682,10 +5705,10 @@
         <v>139</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="CQ9" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR9" s="8" t="s">
         <v>77</v>
@@ -5725,7 +5748,7 @@
         <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>136</v>
@@ -5746,7 +5769,7 @@
         <v>77</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>77</v>
@@ -5782,20 +5805,20 @@
         <v>77</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>136</v>
@@ -5864,7 +5887,7 @@
       <c r="CO10" s="1"/>
       <c r="CP10" s="1"/>
       <c r="CQ10" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CR10" s="8" t="s">
         <v>77</v>
@@ -5930,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5943,12 +5966,12 @@
     <col min="5" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
     <col min="10" max="10" width="20.453125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" customWidth="1"/>
     <col min="13" max="13" width="18.7265625" customWidth="1"/>
-    <col min="14" max="14" width="24.90625" customWidth="1"/>
+    <col min="14" max="14" width="24.81640625" customWidth="1"/>
     <col min="15" max="15" width="24.26953125" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="19.453125" customWidth="1"/>
@@ -5966,49 +5989,49 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>593</v>
+        <v>307</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>594</v>
+        <v>308</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>595</v>
+        <v>309</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>596</v>
+        <v>310</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>597</v>
+        <v>311</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>598</v>
+        <v>313</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>599</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -6019,22 +6042,22 @@
         <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -6045,22 +6068,22 @@
         <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -6074,13 +6097,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>138</v>
@@ -6092,7 +6115,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -6106,13 +6129,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>138</v>
@@ -6124,7 +6147,7 @@
         <v>139</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -6138,13 +6161,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>138</v>
@@ -6156,7 +6179,7 @@
         <v>139</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -6170,13 +6193,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>138</v>
@@ -6188,7 +6211,7 @@
         <v>139</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -6202,17 +6225,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -6226,17 +6249,17 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -6250,17 +6273,17 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F10" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -6274,17 +6297,17 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -6298,13 +6321,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>138</v>
@@ -6316,7 +6339,7 @@
         <v>139</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -6330,13 +6353,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>138</v>
@@ -6348,7 +6371,7 @@
         <v>139</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -6362,13 +6385,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>138</v>
@@ -6380,7 +6403,7 @@
         <v>139</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -6394,13 +6417,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>138</v>
@@ -6412,7 +6435,7 @@
         <v>139</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -6426,13 +6449,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>138</v>
@@ -6444,7 +6467,7 @@
         <v>139</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>139</v>
@@ -6482,13 +6505,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>138</v>
@@ -6500,7 +6523,7 @@
         <v>139</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>139</v>
@@ -6538,13 +6561,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>138</v>
@@ -6556,7 +6579,7 @@
         <v>139</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -6570,13 +6593,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>138</v>
@@ -6588,7 +6611,7 @@
         <v>139</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -6602,13 +6625,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>138</v>
@@ -6620,7 +6643,7 @@
         <v>139</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -6634,13 +6657,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>138</v>
@@ -6652,7 +6675,7 @@
         <v>139</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -6665,7 +6688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A6D6C4-93D0-45E1-B221-1EAED7219C95}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6688,34 +6711,34 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="J1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="K1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
         <v>119</v>
@@ -6732,13 +6755,13 @@
         <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N2" t="s">
         <v>138</v>
@@ -6753,8 +6776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6781,28 +6804,28 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="J1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="K1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -6825,16 +6848,19 @@
         <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
         <v>138</v>
       </c>
       <c r="J2" t="s">
         <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -6857,16 +6883,19 @@
         <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
         <v>138</v>
       </c>
       <c r="J3" t="s">
         <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -6876,8 +6905,12 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="E4" t="s">
         <v>138</v>
       </c>
@@ -6885,16 +6918,19 @@
         <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H4" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I4" t="s">
         <v>138</v>
       </c>
       <c r="J4" t="s">
         <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -6904,8 +6940,12 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="E5" t="s">
         <v>138</v>
       </c>
@@ -6913,21 +6953,24 @@
         <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H5" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I5" t="s">
         <v>138</v>
       </c>
       <c r="J5" t="s">
         <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6939,10 +6982,10 @@
         <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I6" t="s">
         <v>138</v>
@@ -6965,10 +7008,10 @@
         <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I7" t="s">
         <v>138</v>
@@ -6991,10 +7034,10 @@
         <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I8" t="s">
         <v>138</v>
@@ -7005,7 +7048,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7017,10 +7060,10 @@
         <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I9" t="s">
         <v>138</v>
@@ -7045,10 +7088,10 @@
         <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I10" t="s">
         <v>138</v>
@@ -7073,10 +7116,10 @@
         <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I11" t="s">
         <v>138</v>
@@ -7101,10 +7144,10 @@
         <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H12" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I12" t="s">
         <v>138</v>
@@ -7129,10 +7172,10 @@
         <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H13" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I13" t="s">
         <v>138</v>
@@ -7159,19 +7202,19 @@
         <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="I14" t="s">
         <v>138</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K14" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -7192,19 +7235,19 @@
         <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H15" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
         <v>138</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="K15" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -7217,8 +7260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7237,7 +7280,7 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -7252,7 +7295,7 @@
         <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -7264,70 +7307,70 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="O1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="R1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="S1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="U1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="W1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Y1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Z1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="AA1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AB1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AE1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AF1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AG1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AH1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -7347,7 +7390,7 @@
         <v>71</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -7367,7 +7410,7 @@
         <v>71</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -7380,7 +7423,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
@@ -7390,7 +7433,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -7409,7 +7452,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="AI4" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -7426,7 +7469,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>71</v>
@@ -7444,13 +7487,13 @@
         <v>138</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L5" s="1">
         <v>97818</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
@@ -7467,7 +7510,7 @@
         <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>71</v>
@@ -7485,13 +7528,13 @@
         <v>138</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L6" s="1">
         <v>97818</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7535,82 +7578,82 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -7621,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -7632,10 +7675,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7651,9 +7694,10 @@
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7667,28 +7711,31 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+      <c r="L1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -7702,16 +7749,16 @@
         <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="I2" t="s">
         <v>138</v>
@@ -7720,10 +7767,10 @@
         <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -7733,10 +7780,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -7746,10 +7793,10 @@
       </c>
       <c r="I3" s="7"/>
       <c r="K3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -7763,16 +7810,16 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="I4" t="s">
         <v>138</v>
@@ -7781,7 +7828,7 @@
         <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8283,49 +8330,49 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
         <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="S1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8337,15 +8384,15 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="S2" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8355,7 +8402,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="S3" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -8368,7 +8415,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8384,7 +8431,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="T4" s="7"/>
     </row>
@@ -8402,7 +8449,7 @@
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F5" t="s">
         <v>138</v>
@@ -8412,7 +8459,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="S5" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -8429,7 +8476,7 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F6" t="s">
         <v>138</v>
@@ -8439,7 +8486,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="S6" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
@@ -8506,178 +8553,178 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H1" t="s">
         <v>119</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -8797,17 +8844,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BN9" sqref="BN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.08984375" customWidth="1"/>
+    <col min="18" max="18" width="26.1796875" customWidth="1"/>
     <col min="19" max="19" width="10.26953125" customWidth="1"/>
     <col min="20" max="20" width="38.81640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="38.453125" bestFit="1" customWidth="1"/>
@@ -8824,193 +8871,193 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>600</v>
+        <v>454</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="AT1" s="11" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AU1" s="11" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AW1" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="AX1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="AY1" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="AZ1" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="BA1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="BB1" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="BC1" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="BD1" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="BE1" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="BF1" t="s">
-        <v>584</v>
+        <v>490</v>
       </c>
       <c r="BG1" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="BH1" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="BI1" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
       <c r="BJ1" t="s">
-        <v>586</v>
+        <v>494</v>
       </c>
       <c r="BK1" t="s">
-        <v>587</v>
+        <v>495</v>
       </c>
       <c r="BL1" t="s">
-        <v>588</v>
+        <v>496</v>
       </c>
       <c r="BM1" t="s">
-        <v>589</v>
+        <v>497</v>
       </c>
       <c r="BN1" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -9031,16 +9078,16 @@
         <v>136</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>114</v>
@@ -9049,13 +9096,13 @@
         <v>136</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>136</v>
@@ -9092,28 +9139,28 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.35">
@@ -9136,16 +9183,16 @@
         <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>114</v>
@@ -9154,13 +9201,13 @@
         <v>136</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>136</v>
@@ -9199,28 +9246,28 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.35">
@@ -9243,16 +9290,16 @@
         <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>114</v>
@@ -9261,13 +9308,13 @@
         <v>136</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>136</v>
@@ -9306,28 +9353,28 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.35">
@@ -9348,16 +9395,16 @@
         <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>114</v>
@@ -9366,13 +9413,13 @@
         <v>136</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>136</v>
@@ -9409,28 +9456,28 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.35">
@@ -9453,16 +9500,16 @@
         <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>114</v>
@@ -9471,16 +9518,16 @@
         <v>114</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>138</v>
@@ -9574,30 +9621,30 @@
         <v>77</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BF6" s="1" t="s">
         <v>139</v>
@@ -9647,34 +9694,34 @@
         <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>138</v>
@@ -9712,28 +9759,28 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.35">
@@ -9756,34 +9803,34 @@
         <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>138</v>
@@ -9821,28 +9868,28 @@
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.35">
@@ -10915,100 +10962,100 @@
         <v>117</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>119</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -11021,31 +11068,31 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -11070,7 +11117,7 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -11087,31 +11134,31 @@
         <v>138</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>138</v>
@@ -11180,7 +11227,7 @@
         <v>139</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
@@ -11197,98 +11244,98 @@
         <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="12" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
@@ -11305,31 +11352,31 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -11354,7 +11401,7 @@
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
@@ -11371,31 +11418,31 @@
         <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>138</v>
@@ -11426,7 +11473,7 @@
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
@@ -11444,10 +11491,10 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="6"/>
@@ -11968,31 +12015,31 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="E1" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="F1" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="G1" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="H1" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -12012,7 +12059,7 @@
         <v>138</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>136</v>
@@ -12027,7 +12074,7 @@
         <v>138</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -12050,7 +12097,7 @@
         <v>138</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>136</v>
@@ -12065,7 +12112,7 @@
         <v>138</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -12086,7 +12133,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="G4" t="s">
         <v>136</v>
@@ -12107,10 +12154,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="G5" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>115</v>
@@ -12133,10 +12180,10 @@
         <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="G6" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>115</v>
@@ -12148,7 +12195,7 @@
         <v>138</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L6" t="s">
         <v>139</v>
@@ -12196,49 +12243,49 @@
         <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -12289,7 +12336,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>138</v>
@@ -12339,7 +12386,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>138</v>
@@ -12371,7 +12418,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
@@ -12440,58 +12487,58 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G1" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H1" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="J1" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="K1" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="L1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="M1" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="N1" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="O1" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="P1" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="Q1" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="R1" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="S1" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="T1" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="U1" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -12560,7 +12607,7 @@
     <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.08984375" customWidth="1"/>
+    <col min="17" max="17" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12574,46 +12621,46 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="F1" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="G1" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="H1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="I1" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="J1" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="K1" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="L1" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="M1" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="N1" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="Q1" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12680,7 +12727,7 @@
         <v>138</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -12727,7 +12774,7 @@
         <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -12827,7 +12874,7 @@
         <v>136</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12905,22 +12952,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="E1" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="F1" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="G1" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="H1" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="I1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -12949,7 +12996,7 @@
         <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -12982,55 +13029,55 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="E1" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="F1" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="G1" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="J1" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="K1" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="L1" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="M1" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="N1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="O1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P1" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="Q1" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="R1" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="S1" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="T1" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -13047,7 +13094,7 @@
         <v>139</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>136</v>
@@ -13109,7 +13156,7 @@
         <v>139</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>136</v>
@@ -13287,10 +13334,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13313,7 +13360,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -13330,7 +13377,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -13347,7 +13394,7 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -13364,7 +13411,7 @@
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -13381,7 +13428,7 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -13398,7 +13445,7 @@
         <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -13436,22 +13483,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -13592,19 +13639,19 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E1" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="F1" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="G1" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="H1" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -13932,8 +13979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14444,13 +14491,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14671,20 +14717,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14709,9 +14754,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\CARES---Selenium-Automation-master\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4F8AC-4189-4941-8B2B-658E5C61D570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF816B2-67E8-4834-89DD-69682BAC3FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="15" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="2620" yWindow="160" windowWidth="14400" windowHeight="9920" firstSheet="14" activeTab="15" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -5953,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -6776,8 +6776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14491,15 +14491,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -14716,6 +14707,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14727,14 +14727,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14753,6 +14745,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF816B2-67E8-4834-89DD-69682BAC3FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3041D4-3A25-448C-8F6F-111F5EAB059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="160" windowWidth="14400" windowHeight="9920" firstSheet="14" activeTab="15" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="4950" yWindow="530" windowWidth="14400" windowHeight="9920" firstSheet="20" activeTab="22" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="614">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1002,9 +1002,6 @@
     <t>APPROXIMATE_AGE_VERIFY</t>
   </si>
   <si>
-    <t>COLLATERAL_TYPR_VERIFY</t>
-  </si>
-  <si>
     <t>COUNTRY_VERIFY</t>
   </si>
   <si>
@@ -1776,9 +1773,6 @@
     <t>Screening History</t>
   </si>
   <si>
-    <t>Country Assigned to Screening</t>
-  </si>
-  <si>
     <t>RECALL</t>
   </si>
   <si>
@@ -1875,6 +1869,21 @@
     <t>REASSIGN_BTN</t>
   </si>
   <si>
+    <t>MODIFIEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>COLLATERAL_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>Please clear validation errors before saving.</t>
+  </si>
+  <si>
+    <t>DOCUMENT_SUBTAB_VERIFY</t>
+  </si>
+  <si>
+    <t>County Assigned to Screening</t>
+  </si>
+  <si>
     <t>SCP_ID1</t>
   </si>
   <si>
@@ -1885,6 +1894,21 @@
   </si>
   <si>
     <t>SCP_ID4</t>
+  </si>
+  <si>
+    <t>METHOD_LIST</t>
+  </si>
+  <si>
+    <t>ROLE_LIST</t>
+  </si>
+  <si>
+    <t>Alleged Perpetrator,Alleged Victim,Collateral,Safety Surrendered Baby</t>
+  </si>
+  <si>
+    <t>CONTACT_PURPOSE_LIST</t>
+  </si>
+  <si>
+    <t>E-mail,In-Person,Phone,Text,Video Chat,Written</t>
   </si>
 </sst>
 </file>
@@ -1958,26 +1982,26 @@
       <sz val="10"/>
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1989,7 +2013,7 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2381,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2506,23 +2530,34 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2533,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2687,6 +2722,26 @@
         <v>139</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2697,7 +2752,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2968,9 +3023,6 @@
       <c r="F6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="V6" s="23"/>
       <c r="AC6" s="22"/>
     </row>
@@ -3079,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3119,7 +3171,7 @@
     <col min="33" max="33" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3272,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3234,10 +3286,10 @@
         <v>138</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
@@ -3281,7 +3333,7 @@
       </c>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3379,11 +3431,8 @@
       <c r="AG3" t="s">
         <v>136</v>
       </c>
-      <c r="AH3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3481,11 +3530,8 @@
       <c r="AG4" t="s">
         <v>136</v>
       </c>
-      <c r="AH4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3499,10 +3545,10 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>202</v>
@@ -3529,10 +3575,10 @@
         <v>138</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>139</v>
@@ -3554,28 +3600,113 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
+      <c r="AG5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="T5" r:id="rId2" xr:uid="{91F4668C-F47C-4801-AF32-0D9E3586BCF0}"/>
+    <hyperlink ref="T6" r:id="rId3" xr:uid="{D83E4477-BBA6-49BD-B743-E1A25373B4EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DC11"/>
+  <dimension ref="A1:DG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ14" sqref="AJ14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3662,16 +3793,17 @@
     <col min="92" max="92" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="98" width="21.54296875" customWidth="1"/>
+    <col min="99" max="99" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:111" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3955,13 +4087,25 @@
         <v>285</v>
       </c>
       <c r="CQ1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="CR1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="CS1" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="CT1" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="CU1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CV1" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:107" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:111" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>136</v>
       </c>
@@ -4128,12 +4272,16 @@
       <c r="CN2" s="16"/>
       <c r="CO2" s="16"/>
       <c r="CP2" s="16"/>
-      <c r="CQ2" s="18" t="s">
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
+      <c r="CU2" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="CR2" s="16"/>
-    </row>
-    <row r="3" spans="1:107" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="CV2" s="16"/>
+    </row>
+    <row r="3" spans="1:111" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
@@ -4416,16 +4564,16 @@
       <c r="CP3" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="CQ3" s="18" t="s">
+      <c r="CQ3" s="18"/>
+      <c r="CR3" s="18"/>
+      <c r="CS3" s="18"/>
+      <c r="CT3" s="18"/>
+      <c r="CU3" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="CR3" s="18" t="s">
+      <c r="CV3" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="CS3" s="19"/>
-      <c r="CT3" s="19"/>
-      <c r="CU3" s="19"/>
-      <c r="CV3" s="19"/>
       <c r="CW3" s="19"/>
       <c r="CX3" s="19"/>
       <c r="CY3" s="19"/>
@@ -4433,8 +4581,12 @@
       <c r="DA3" s="19"/>
       <c r="DB3" s="19"/>
       <c r="DC3" s="19"/>
-    </row>
-    <row r="4" spans="1:107" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="DD3" s="19"/>
+      <c r="DE3" s="19"/>
+      <c r="DF3" s="19"/>
+      <c r="DG3" s="19"/>
+    </row>
+    <row r="4" spans="1:111" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -4717,16 +4869,16 @@
       <c r="CP4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="CQ4" s="8" t="s">
+      <c r="CQ4" s="8"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="8"/>
+      <c r="CU4" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="CR4" s="8" t="s">
+      <c r="CV4" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="CS4" s="1"/>
-      <c r="CT4" s="1"/>
-      <c r="CU4" s="1"/>
-      <c r="CV4" s="1"/>
       <c r="CW4" s="1"/>
       <c r="CX4" s="1"/>
       <c r="CY4" s="1"/>
@@ -4734,8 +4886,12 @@
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
-    </row>
-    <row r="5" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+    </row>
+    <row r="5" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -4904,14 +5060,18 @@
       <c r="CN5" s="8"/>
       <c r="CO5" s="8"/>
       <c r="CP5" s="8"/>
-      <c r="CQ5" s="8" t="s">
+      <c r="CQ5" s="8"/>
+      <c r="CR5" s="8"/>
+      <c r="CS5" s="8"/>
+      <c r="CT5" s="8"/>
+      <c r="CU5" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="CR5" s="8" t="s">
+      <c r="CV5" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -5078,14 +5238,18 @@
       <c r="CN6" s="8"/>
       <c r="CO6" s="8"/>
       <c r="CP6" s="8"/>
-      <c r="CQ6" s="8" t="s">
+      <c r="CQ6" s="8"/>
+      <c r="CR6" s="8"/>
+      <c r="CS6" s="8"/>
+      <c r="CT6" s="8"/>
+      <c r="CU6" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="CR6" s="8" t="s">
+      <c r="CV6" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>298</v>
       </c>
@@ -5234,8 +5398,12 @@
       <c r="CN7" s="8"/>
       <c r="CO7" s="8"/>
       <c r="CP7" s="8"/>
-    </row>
-    <row r="8" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CQ7" s="8"/>
+      <c r="CR7" s="8"/>
+      <c r="CS7" s="8"/>
+      <c r="CT7" s="8"/>
+    </row>
+    <row r="8" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5341,16 +5509,24 @@
       <c r="AI8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
+      <c r="AQ8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -5361,7 +5537,9 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
+      <c r="BB8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1" t="s">
@@ -5391,31 +5569,49 @@
       <c r="CA8" s="1"/>
       <c r="CB8" s="1"/>
       <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
+      <c r="CD8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
+      <c r="CG8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
+      <c r="CO8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="CP8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="CQ8" s="8" t="s">
+      <c r="CQ8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU8" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="CR8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
-      <c r="CU8" s="1"/>
-      <c r="CV8" s="1"/>
+      <c r="CV8" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="CW8" s="1"/>
       <c r="CX8" s="1"/>
       <c r="CY8" s="1"/>
@@ -5423,8 +5619,12 @@
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
       <c r="DC8" s="1"/>
-    </row>
-    <row r="9" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
+    </row>
+    <row r="9" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5707,16 +5907,24 @@
       <c r="CP9" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="CQ9" s="8" t="s">
+      <c r="CQ9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU9" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="CR9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
-      <c r="CU9" s="1"/>
-      <c r="CV9" s="1"/>
+      <c r="CV9" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="CW9" s="1"/>
       <c r="CX9" s="1"/>
       <c r="CY9" s="1"/>
@@ -5724,13 +5932,17 @@
       <c r="DA9" s="1"/>
       <c r="DB9" s="1"/>
       <c r="DC9" s="1"/>
-    </row>
-    <row r="10" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+    </row>
+    <row r="10" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -5748,7 +5960,7 @@
         <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>136</v>
@@ -5760,7 +5972,7 @@
         <v>77</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>77</v>
@@ -5805,34 +6017,50 @@
         <v>77</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE10" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AF10" s="1" t="s">
         <v>289</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
+      <c r="AH10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
+      <c r="AK10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
+      <c r="AQ10" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
@@ -5843,7 +6071,9 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
+      <c r="BB10" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1" t="s">
@@ -5873,29 +6103,49 @@
       <c r="CA10" s="1"/>
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
+      <c r="CD10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
+      <c r="CG10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH10" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="CI10" s="1"/>
       <c r="CJ10" s="1"/>
       <c r="CK10" s="1"/>
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="8" t="s">
+      <c r="CO10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CP10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CQ10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU10" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="CR10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
-      <c r="CU10" s="1"/>
-      <c r="CV10" s="1"/>
+      <c r="CV10" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="CW10" s="1"/>
       <c r="CX10" s="1"/>
       <c r="CY10" s="1"/>
@@ -5903,44 +6153,506 @@
       <c r="DA10" s="1"/>
       <c r="DB10" s="1"/>
       <c r="DC10" s="1"/>
-    </row>
-    <row r="11" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+    </row>
+    <row r="11" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CF11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CH11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CM11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CN11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CO11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CP11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CQ11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="CV11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
+      <c r="DE11" s="1"/>
+      <c r="DF11" s="1"/>
+      <c r="DG11" s="1"/>
+    </row>
+    <row r="12" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="CV12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
+      <c r="DE12" s="1"/>
+      <c r="DF12" s="1"/>
+      <c r="DG12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5951,10 +6663,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD19"/>
+    <sheetView topLeftCell="N11" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6022,16 +6734,16 @@
         <v>310</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>311</v>
+        <v>601</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -6042,22 +6754,22 @@
         <v>136</v>
       </c>
       <c r="C2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" t="s">
         <v>315</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>316</v>
       </c>
-      <c r="E2" t="s">
-        <v>317</v>
-      </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -6068,22 +6780,22 @@
         <v>136</v>
       </c>
       <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
         <v>319</v>
       </c>
-      <c r="D3" t="s">
-        <v>320</v>
-      </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -6097,25 +6809,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -6129,25 +6841,25 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -6161,25 +6873,25 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -6193,25 +6905,25 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -6225,17 +6937,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
         <v>316</v>
       </c>
-      <c r="E8" t="s">
-        <v>317</v>
-      </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -6249,17 +6961,17 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -6273,17 +6985,17 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
-        <v>317</v>
-      </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -6297,17 +7009,17 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -6321,25 +7033,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" t="s">
         <v>316</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="F12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -6353,25 +7065,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="F13" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -6385,25 +7097,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" t="s">
         <v>316</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="F14" t="s">
-        <v>317</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -6417,25 +7129,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="F15" t="s">
-        <v>317</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -6449,25 +7161,25 @@
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>139</v>
@@ -6505,25 +7217,25 @@
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>139</v>
@@ -6561,25 +7273,25 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -6593,89 +7305,265 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="K20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" t="s">
         <v>316</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" t="s">
-        <v>317</v>
-      </c>
-      <c r="F21" t="s">
-        <v>317</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -6688,7 +7576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A6D6C4-93D0-45E1-B221-1EAED7219C95}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6711,31 +7599,31 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" t="s">
         <v>321</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>322</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>323</v>
-      </c>
-      <c r="G1" t="s">
-        <v>324</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" t="s">
         <v>325</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>326</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>327</v>
-      </c>
-      <c r="L1" t="s">
-        <v>328</v>
       </c>
       <c r="M1" t="s">
         <v>224</v>
@@ -6755,10 +7643,10 @@
         <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M2" t="s">
         <v>297</v>
@@ -6774,10 +7662,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6791,9 +7679,10 @@
     <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6807,28 +7696,31 @@
         <v>305</v>
       </c>
       <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
         <v>330</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>331</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>332</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>334</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6848,10 +7740,10 @@
         <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
         <v>138</v>
@@ -6860,10 +7752,13 @@
         <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>605</v>
+      </c>
+      <c r="L2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -6883,10 +7778,10 @@
         <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I3" t="s">
         <v>138</v>
@@ -6895,10 +7790,10 @@
         <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -6918,10 +7813,10 @@
         <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
         <v>138</v>
@@ -6930,10 +7825,10 @@
         <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -6953,10 +7848,10 @@
         <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I5" t="s">
         <v>138</v>
@@ -6965,41 +7860,59 @@
         <v>138</v>
       </c>
       <c r="K5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H6" t="s">
-        <v>337</v>
-      </c>
-      <c r="I6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="L6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>138</v>
@@ -7019,13 +7932,22 @@
       <c r="J7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>138</v>
@@ -7034,10 +7956,10 @@
         <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I8" t="s">
         <v>138</v>
@@ -7045,13 +7967,22 @@
       <c r="J8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>138</v>
@@ -7071,16 +8002,17 @@
       <c r="J9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="K9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="E10" t="s">
         <v>138</v>
       </c>
@@ -7088,10 +8020,10 @@
         <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I10" t="s">
         <v>138</v>
@@ -7100,15 +8032,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="E11" t="s">
         <v>138</v>
       </c>
@@ -7116,10 +8046,10 @@
         <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I11" t="s">
         <v>138</v>
@@ -7128,15 +8058,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="E12" t="s">
         <v>138</v>
       </c>
@@ -7156,44 +8084,40 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" t="s">
-        <v>337</v>
-      </c>
-      <c r="H13" t="s">
-        <v>337</v>
-      </c>
-      <c r="I13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>138</v>
@@ -7202,31 +8126,26 @@
         <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I14" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
         <v>138</v>
@@ -7235,19 +8154,138 @@
         <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I15" t="s">
         <v>138</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" t="s">
+        <v>336</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" t="s">
+        <v>337</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K19" t="s">
         <v>342</v>
-      </c>
-      <c r="K15" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -7260,8 +8298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7280,7 +8318,7 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -7295,7 +8333,7 @@
         <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -7307,19 +8345,19 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" t="s">
         <v>346</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>349</v>
-      </c>
-      <c r="R1" t="s">
-        <v>350</v>
       </c>
       <c r="S1" t="s">
         <v>279</v>
@@ -7337,16 +8375,16 @@
         <v>239</v>
       </c>
       <c r="X1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z1" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>352</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>353</v>
       </c>
       <c r="AB1" t="s">
         <v>196</v>
@@ -7355,19 +8393,19 @@
         <v>200</v>
       </c>
       <c r="AD1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE1" t="s">
         <v>354</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>355</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>356</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>357</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>358</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>286</v>
@@ -7423,7 +8461,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
@@ -7433,7 +8471,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -7469,7 +8507,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>71</v>
@@ -7487,7 +8525,7 @@
         <v>138</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L5" s="1">
         <v>97818</v>
@@ -7510,7 +8548,7 @@
         <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>71</v>
@@ -7528,7 +8566,7 @@
         <v>138</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L6" s="1">
         <v>97818</v>
@@ -7578,82 +8616,82 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>362</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>363</v>
-      </c>
-      <c r="H1" t="s">
-        <v>364</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" t="s">
         <v>365</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>366</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>196</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -7664,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -7678,7 +8716,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7711,28 +8749,28 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
         <v>383</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>384</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>385</v>
-      </c>
-      <c r="H1" t="s">
-        <v>386</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K1" t="s">
         <v>286</v>
       </c>
       <c r="L1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -7749,16 +8787,16 @@
         <v>138</v>
       </c>
       <c r="E2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" t="s">
         <v>389</v>
       </c>
-      <c r="F2" t="s">
-        <v>390</v>
-      </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I2" t="s">
         <v>138</v>
@@ -7767,7 +8805,7 @@
         <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -7780,10 +8818,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" t="s">
         <v>389</v>
-      </c>
-      <c r="F3" t="s">
-        <v>390</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -7793,7 +8831,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="K3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -7810,16 +8848,16 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" t="s">
         <v>389</v>
       </c>
-      <c r="F4" t="s">
-        <v>390</v>
-      </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I4" t="s">
         <v>138</v>
@@ -7828,7 +8866,7 @@
         <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8330,46 +9368,46 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F1" t="s">
         <v>119</v>
       </c>
       <c r="G1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>394</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>196</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S1" t="s">
         <v>286</v>
@@ -8384,15 +9422,15 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8402,7 +9440,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="S3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -8415,7 +9453,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8431,7 +9469,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T4" s="7"/>
     </row>
@@ -8449,7 +9487,7 @@
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F5" t="s">
         <v>138</v>
@@ -8459,7 +9497,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="S5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -8476,7 +9514,7 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F6" t="s">
         <v>138</v>
@@ -8486,7 +9524,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="S6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
@@ -8553,178 +9591,178 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1" t="s">
         <v>119</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>196</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>441</v>
-      </c>
       <c r="BJ1" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -8842,10 +9880,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BN25"/>
+  <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BN9" sqref="BN9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8871,193 +9909,193 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="AE1" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="AS1" s="11" t="s">
-        <v>480</v>
-      </c>
       <c r="AT1" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AU1" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>286</v>
       </c>
       <c r="AW1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AX1" t="s">
         <v>481</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>482</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>483</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>484</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>485</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>486</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>487</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>488</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>489</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>490</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>491</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>492</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>493</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>494</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>495</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>496</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>497</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -9078,16 +10116,16 @@
         <v>136</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>114</v>
@@ -9096,13 +10134,13 @@
         <v>136</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>136</v>
@@ -9183,16 +10221,16 @@
         <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>114</v>
@@ -9201,13 +10239,13 @@
         <v>136</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>136</v>
@@ -9290,16 +10328,16 @@
         <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>114</v>
@@ -9308,13 +10346,13 @@
         <v>136</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>136</v>
@@ -9395,16 +10433,16 @@
         <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>114</v>
@@ -9413,13 +10451,13 @@
         <v>136</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>136</v>
@@ -9500,16 +10538,16 @@
         <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>114</v>
@@ -9518,16 +10556,16 @@
         <v>114</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>138</v>
@@ -9676,10 +10714,10 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -9694,77 +10732,135 @@
         <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>505</v>
+        <v>114</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>138</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AE7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
+      <c r="AF7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AV7" s="1" t="s">
         <v>290</v>
       </c>
       <c r="AW7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AX7" s="1"/>
+      <c r="AX7" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AY7" s="1" t="s">
         <v>289</v>
       </c>
@@ -9782,10 +10878,37 @@
       <c r="BE7" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="BF7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -9803,54 +10926,54 @@
         <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>138</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="12"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="11"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="AE8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -9893,31 +11016,67 @@
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="12"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="12"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -9940,16 +11099,30 @@
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="12"/>
+      <c r="AV9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
+      <c r="AY9" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
+      <c r="BA9" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
+      <c r="BC9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
@@ -10035,7 +11208,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="12"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -10059,7 +11232,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="11"/>
+      <c r="AW11" s="12"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -10094,7 +11267,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="12"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -10118,7 +11291,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="12"/>
+      <c r="AW12" s="11"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -10177,7 +11350,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
+      <c r="AW13" s="12"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -10212,7 +11385,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="11"/>
+      <c r="Y14" s="12"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -10271,7 +11444,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -10389,7 +11562,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="11"/>
+      <c r="Y17" s="12"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -10448,7 +11621,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="12"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -10566,7 +11739,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="11"/>
+      <c r="Y20" s="12"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -10625,7 +11798,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="12"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -10895,6 +12068,65 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
     </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10903,10 +12135,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10925,30 +12157,34 @@
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.1796875" customWidth="1"/>
-    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1796875" customWidth="1"/>
+    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.453125" customWidth="1"/>
+    <col min="40" max="40" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10962,103 +12198,115 @@
         <v>117</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>449</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>119</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>442</v>
+        <v>612</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="AN1" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -11068,19 +12316,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>114</v>
@@ -11089,18 +12337,18 @@
         <v>294</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="T2" s="6"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -11116,11 +12364,15 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -11134,19 +12386,19 @@
         <v>138</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>114</v>
@@ -11155,390 +12407,596 @@
         <v>294</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="5"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -11555,28 +13013,66 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="6"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -11593,8 +13089,14 @@
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -11608,13 +13110,17 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="N10" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -11631,8 +13137,12 @@
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -11649,10 +13159,10 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
@@ -11669,8 +13179,12 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -11687,10 +13201,10 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
@@ -11707,8 +13221,12 @@
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -11725,10 +13243,10 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="6"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -11745,8 +13263,12 @@
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -11763,10 +13285,10 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
@@ -11783,8 +13305,12 @@
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -11801,10 +13327,10 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
@@ -11821,8 +13347,12 @@
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -11839,10 +13369,10 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
@@ -11859,8 +13389,12 @@
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -11877,10 +13411,10 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
@@ -11897,8 +13431,12 @@
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -11915,10 +13453,10 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -11935,8 +13473,12 @@
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -11953,10 +13495,10 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="T19" s="6"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
@@ -11973,6 +13515,136 @@
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12015,31 +13687,31 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" t="s">
         <v>516</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>517</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>518</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>519</v>
-      </c>
-      <c r="H1" t="s">
-        <v>520</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -12059,7 +13731,7 @@
         <v>138</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>136</v>
@@ -12074,7 +13746,7 @@
         <v>138</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -12097,7 +13769,7 @@
         <v>138</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>136</v>
@@ -12112,7 +13784,7 @@
         <v>138</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -12133,7 +13805,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G4" t="s">
         <v>136</v>
@@ -12154,10 +13826,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G5" t="s">
         <v>523</v>
-      </c>
-      <c r="G5" t="s">
-        <v>524</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>115</v>
@@ -12180,10 +13852,10 @@
         <v>138</v>
       </c>
       <c r="F6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" t="s">
         <v>523</v>
-      </c>
-      <c r="G6" t="s">
-        <v>524</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>115</v>
@@ -12195,7 +13867,7 @@
         <v>138</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L6" t="s">
         <v>139</v>
@@ -12243,49 +13915,49 @@
         <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -12336,7 +14008,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>138</v>
@@ -12386,7 +14058,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>138</v>
@@ -12418,7 +14090,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
@@ -12487,58 +14159,58 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G1" t="s">
         <v>542</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>543</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" t="s">
         <v>544</v>
       </c>
-      <c r="I1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>545</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>546</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>547</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>548</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>549</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q1" t="s">
         <v>550</v>
       </c>
-      <c r="P1" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>551</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>552</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>553</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>554</v>
-      </c>
-      <c r="U1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -12586,10 +14258,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12621,46 +14293,46 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" t="s">
         <v>556</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>557</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>558</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I1" t="s">
         <v>559</v>
       </c>
-      <c r="H1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>560</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>561</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>562</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>563</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>564</v>
-      </c>
-      <c r="N1" t="s">
-        <v>565</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
       </c>
       <c r="P1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q1" t="s">
         <v>566</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12727,7 +14399,7 @@
         <v>138</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -12774,7 +14446,7 @@
         <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -12874,50 +14546,100 @@
         <v>136</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12952,22 +14674,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" t="s">
         <v>570</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>571</v>
       </c>
-      <c r="G1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H1" t="s">
-        <v>573</v>
-      </c>
       <c r="I1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -12996,7 +14718,7 @@
         <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -13029,55 +14751,55 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" t="s">
         <v>575</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>576</v>
-      </c>
-      <c r="F1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G1" t="s">
-        <v>578</v>
       </c>
       <c r="H1" t="s">
         <v>204</v>
       </c>
       <c r="I1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K1" t="s">
         <v>579</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>580</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>581</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O1" t="s">
+        <v>383</v>
+      </c>
+      <c r="P1" t="s">
         <v>582</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>583</v>
       </c>
-      <c r="N1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O1" t="s">
-        <v>384</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>584</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>585</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>586</v>
-      </c>
-      <c r="S1" t="s">
-        <v>587</v>
-      </c>
-      <c r="T1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -13094,7 +14816,7 @@
         <v>139</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>136</v>
@@ -13156,7 +14878,7 @@
         <v>139</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>136</v>
@@ -13308,10 +15030,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13334,7 +15056,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>286</v>
@@ -13360,7 +15082,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -13377,7 +15099,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -13394,7 +15116,7 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -13411,15 +15133,15 @@
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -13428,24 +15150,41 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>592</v>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -13483,22 +15222,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -13639,19 +15378,19 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G1" t="s">
         <v>598</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>599</v>
-      </c>
-      <c r="G1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -13977,10 +15716,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14164,16 +15903,16 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -14190,17 +15929,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -14218,22 +15955,41 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -14247,8 +16003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A98DFFD-1A2A-41CC-AFEE-7D055D33FA0E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
